--- a/Import/Configurations/province_template.xlsx
+++ b/Import/Configurations/province_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E607A6D-729A-4CD4-9E7B-A94A63FA339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3549909-5909-48A2-A754-99E06007FBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Mandatory</t>
         </r>
@@ -54,7 +54,7 @@
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Mandatory</t>
         </r>
@@ -80,7 +80,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>sia</t>
     </r>
@@ -116,18 +116,12 @@
     <t xml:space="preserve">Kepulauan Riau  </t>
   </si>
   <si>
-    <t xml:space="preserve">DKI Jakarta  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Jawa Barat  </t>
   </si>
   <si>
     <t xml:space="preserve">Jawa Tengah  </t>
   </si>
   <si>
-    <t xml:space="preserve">Daerah Istimewa Yogyakarta  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Jawa Timur  </t>
   </si>
   <si>
@@ -195,20 +189,20 @@
   </si>
   <si>
     <t xml:space="preserve">Papua Pegunungan  </t>
+  </si>
+  <si>
+    <t>Di Yogyakarta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dki Jakarta  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="7">
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -217,13 +211,38 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -261,10 +280,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,7 +793,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -869,8 +894,8 @@
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.8">
@@ -878,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.8">
@@ -886,15 +911,15 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.8">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.8">
@@ -902,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.8">
@@ -910,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.8">
@@ -918,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.8">
@@ -926,7 +951,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.8">
@@ -934,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.8">
@@ -942,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.8">
@@ -950,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.8">
@@ -958,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.8">
@@ -966,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.8">
@@ -974,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.8">
@@ -982,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.8">
@@ -990,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.8">
@@ -998,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.8">
@@ -1006,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.8">
@@ -1014,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.8">
@@ -1022,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.8">
@@ -1030,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.8">
@@ -1038,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.8">
@@ -1046,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.8">
@@ -1054,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.8">
@@ -1062,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.8">
@@ -1070,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16.8">
@@ -1078,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
